--- a/Edureka_Careers.xlsx
+++ b/Edureka_Careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/katikireddy_shirisha_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="913" documentId="8_{0EE8D466-67A2-45D7-978D-6AA7BD25A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20D6AFF-7971-4298-A4F9-D2DDBA91E19E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68E3B0-F254-419C-9729-249115D646D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{084A5F1A-3EA8-492A-A6D9-E9BA438A2E2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{084A5F1A-3EA8-492A-A6D9-E9BA438A2E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
   <si>
     <t>Issue Type</t>
   </si>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Edureka</t>
   </si>
 </sst>
 </file>
@@ -961,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1002,18 +1008,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1037,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA85C71-DE2D-4347-B5A8-78BF505A915E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE534B-C327-4700-95C9-362D65F4C953}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1593,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3CF916-7AD4-4B9D-AABA-02716078E238}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="54" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2341,19 +2342,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2361,13 +2362,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2375,13 +2376,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2389,13 +2390,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2403,19 +2404,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2423,13 +2424,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2437,13 +2438,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
@@ -2451,13 +2452,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2465,13 +2466,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2479,13 +2480,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2505,7 +2506,7 @@
       <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -2513,19 +2514,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2533,13 +2534,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2547,13 +2548,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -2561,13 +2562,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2575,13 +2576,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2589,13 +2590,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -2603,13 +2604,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -2618,15 +2619,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="C13:C19"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2635,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890CDFFF-F1EA-4B4C-8ED6-669DFD5BBE9D}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,17 +2655,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2693,6 +2694,35 @@
       </c>
       <c r="I2" s="17" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H3" s="20">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
